--- a/tests/test-files/test_wrangling/expected/data_tables_from_CMC/stats_analysis_output_mean_CMC.xlsx
+++ b/tests/test-files/test_wrangling/expected/data_tables_from_CMC/stats_analysis_output_mean_CMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdaf2c4ef198b934/Documents/GitHub/disco-data-processing/tests/test-files/test_wrangling/expected/data_tables_from_CMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_254D205B8244D82EEB75ECF65B5DCE3A87471CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D32BAC-E26B-4132-B687-5E406DFC877B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_254D205B8244D82EEB75ECF65B5DCE3A87471CB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834F811C-CF4D-41FF-B738-08C72D27038B}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,13 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" s="1"/>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -512,7 +512,7 @@
       <c r="M2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -526,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -576,7 +576,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
@@ -622,7 +622,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -668,7 +668,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -714,7 +714,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -760,7 +760,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>0.5</v>
@@ -808,7 +808,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1">
@@ -854,7 +854,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1">
@@ -900,7 +900,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
@@ -946,7 +946,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1">
@@ -992,7 +992,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>0.75</v>
@@ -1040,7 +1040,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1">
@@ -1086,7 +1086,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1">
@@ -1132,7 +1132,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1">
@@ -1178,7 +1178,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1">
@@ -1224,7 +1224,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1">
@@ -1318,7 +1318,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1">
@@ -1364,7 +1364,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1">
@@ -1410,7 +1410,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1">
@@ -1456,7 +1456,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1.25</v>
@@ -1504,7 +1504,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
@@ -1550,7 +1550,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1">
@@ -1596,7 +1596,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1">
@@ -1642,7 +1642,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1">
@@ -1688,7 +1688,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1.5</v>
@@ -1736,7 +1736,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1">
@@ -1782,7 +1782,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1">
@@ -1828,7 +1828,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1">
@@ -1874,7 +1874,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1">
@@ -1920,7 +1920,7 @@
         <v>1.2002365847767471</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>1.75</v>
@@ -1968,7 +1968,7 @@
         <v>4.2968809150648317E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1">
@@ -2014,7 +2014,7 @@
         <v>5.6643977076923389E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1">
@@ -2060,7 +2060,7 @@
         <v>3.6323271873145178E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1">
@@ -2106,7 +2106,7 @@
         <v>8.6550384852484674E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1">
@@ -2122,10 +2122,10 @@
         <v>9.1111220487254622E-3</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2.9068949762774809E-2</v>
